--- a/myapp/files/9_MethodComparePercent/Scenario 347.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 347.xlsx
@@ -584,7 +584,7 @@
         <v>5032</v>
       </c>
       <c r="F2" t="n">
-        <v>4.51381413706494</v>
+        <v>0.845329270197943</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.38983050847458</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>228</v>
+        <v>1541</v>
       </c>
       <c r="F3" t="n">
-        <v>0.204520990312164</v>
+        <v>0.258873689462446</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.69491525423729</v>
+        <v>1.07142857142857</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2400</v>
+        <v>4166</v>
       </c>
       <c r="F4" t="n">
-        <v>2.15285252960172</v>
+        <v>0.699849312330014</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.69491525423729</v>
+        <v>1.07142857142857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>4050</v>
+        <v>13491</v>
       </c>
       <c r="F5" t="n">
-        <v>3.63293864370291</v>
+        <v>2.26636271546909</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.69491525423729</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>1950</v>
+        <v>16322</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7491926803014</v>
+        <v>2.74194442531217</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.69491525423729</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>792</v>
+        <v>3498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.710441334768568</v>
+        <v>0.58763151572981</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.69491525423729</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>3722</v>
+        <v>16164</v>
       </c>
       <c r="F8" t="n">
-        <v>3.33871546465734</v>
+        <v>2.71540189258338</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.05405405405405</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.38983050847458</v>
+        <v>3.21428571428571</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1690</v>
+        <v>17752</v>
       </c>
       <c r="F9" t="n">
-        <v>1.51596698959455</v>
+        <v>2.98217114557907</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -859,10 +859,10 @@
         <v>6.75675675675676</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>3.38983050847458</v>
+        <v>3.92857142857143</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2485</v>
+        <v>24454</v>
       </c>
       <c r="F10" t="n">
-        <v>2.22909939002512</v>
+        <v>4.10804490727753</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>5.40540540540541</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>3.38983050847458</v>
+        <v>4.64285714285714</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1100</v>
+        <v>26014</v>
       </c>
       <c r="F11" t="n">
-        <v>0.986724076067456</v>
+        <v>4.37011042029597</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.69491525423729</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>561</v>
+        <v>4332</v>
       </c>
       <c r="F12" t="n">
-        <v>0.503229278794403</v>
+        <v>0.727735770766592</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.69491525423729</v>
+        <v>1.07142857142857</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10497</v>
+        <v>30020</v>
       </c>
       <c r="F13" t="n">
-        <v>9.41603875134553</v>
+        <v>5.04308121847024</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         <v>5.40540540540541</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>10.1694915254237</v>
+        <v>6.78571428571429</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>28913</v>
+        <v>76008</v>
       </c>
       <c r="F14" t="n">
-        <v>25.9355938284894</v>
+        <v>12.7686381496831</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1049,10 +1049,10 @@
         <v>9.45945945945946</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>16.9491525423729</v>
+        <v>10.3571428571429</v>
       </c>
       <c r="K14" t="n">
         <v>16</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>9559</v>
+        <v>55355</v>
       </c>
       <c r="F15" t="n">
-        <v>8.57463222102619</v>
+        <v>9.2991259443178</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -1087,16 +1087,16 @@
         <v>12.1621621621622</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>11.864406779661</v>
+        <v>11.0714285714286</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>6.75675675675676</v>
+        <v>5.40540540540541</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1092</v>
+        <v>23138</v>
       </c>
       <c r="F16" t="n">
-        <v>0.979547900968784</v>
+        <v>3.88696912834659</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>1.69491525423729</v>
+        <v>3.92857142857143</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>170</v>
+        <v>11611</v>
       </c>
       <c r="F17" t="n">
-        <v>0.152493720846789</v>
+        <v>1.95054017413917</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.69491525423729</v>
+        <v>1.78571428571429</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>3419</v>
+        <v>25289</v>
       </c>
       <c r="F18" t="n">
-        <v>3.06691783279512</v>
+        <v>4.24831715302778</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>3.38983050847458</v>
+        <v>5.35714285714286</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>9432</v>
+        <v>49680</v>
       </c>
       <c r="F19" t="n">
-        <v>8.46071044133477</v>
+        <v>8.34577864535648</v>
       </c>
       <c r="G19" t="n">
         <v>20</v>
@@ -1239,10 +1239,10 @@
         <v>27.027027027027</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
-        <v>5.08474576271186</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>10710</v>
+        <v>62922</v>
       </c>
       <c r="F20" t="n">
-        <v>9.60710441334769</v>
+        <v>10.5703116731707</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -1277,10 +1277,10 @@
         <v>13.5135135135135</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
-        <v>10.1694915254237</v>
+        <v>10.7142857142857</v>
       </c>
       <c r="K20" t="n">
         <v>13</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>648</v>
+        <v>19645</v>
       </c>
       <c r="F21" t="n">
-        <v>0.581270182992465</v>
+        <v>3.30017756618414</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>1.69491525423729</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>12224</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.05351848149834</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.42857142857143</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>21105</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.54544400785525</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1168</v>
+        <v>23725</v>
       </c>
       <c r="F24" t="n">
-        <v>1.04772156440617</v>
+        <v>3.98557967715545</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>3.38983050847458</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2400</v>
+        <v>25735</v>
       </c>
       <c r="F25" t="n">
-        <v>2.15285252960172</v>
+        <v>4.3232410112369</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1467,10 +1467,10 @@
         <v>5.40540540540541</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>3.38983050847458</v>
+        <v>4.64285714285714</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>9462</v>
+        <v>26048</v>
       </c>
       <c r="F26" t="n">
-        <v>8.48762109795479</v>
+        <v>4.37582210455406</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>5.08474576271186</v>
+        <v>3.92857142857143</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
